--- a/姚隆康2016-01.xlsx
+++ b/姚隆康2016-01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="3280" windowWidth="23260" windowHeight="13180"/>
+    <workbookView xWindow="9280" yWindow="3900" windowWidth="23260" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="第3周" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>序号</t>
   </si>
@@ -148,7 +148,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我的收藏列表开发</t>
+    <t>查询帖子是否收藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击评论按钮跳转评论调js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击已阅功能开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -276,8 +284,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -327,20 +389,518 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="29">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="126">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1211,18 +1771,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" style="5" customWidth="1"/>
@@ -1407,26 +1967,22 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2">
-        <v>42390</v>
-      </c>
-      <c r="E6" s="2">
-        <v>42390</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>42390</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
@@ -1486,15 +2042,25 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42390</v>
+      </c>
+      <c r="E9" s="2">
+        <v>42390</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42390</v>
+      </c>
+      <c r="H9" s="2">
+        <v>42390</v>
+      </c>
       <c r="I9" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -1505,10 +2071,14 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
@@ -1517,31 +2087,53 @@
       <c r="I10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="12">
+      <c r="A11" s="1">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>42390</v>
+      </c>
+      <c r="E11" s="2">
+        <v>42390</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>42390</v>
+      </c>
+      <c r="H11" s="2">
+        <v>42390</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="12">
         <v>22</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1556,7 +2148,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1573,7 +2165,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1589,8 +2181,8 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="12">
-        <v>26</v>
+      <c r="A15" s="1">
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1606,8 +2198,8 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>27</v>
+      <c r="A16" s="12">
+        <v>26</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1624,7 +2216,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1641,7 +2233,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1658,7 +2250,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1675,7 +2267,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1691,8 +2283,8 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="12">
-        <v>32</v>
+      <c r="A21" s="1">
+        <v>31</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1708,11 +2300,11 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1">
-        <v>33</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="12">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
@@ -1726,10 +2318,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
@@ -1743,7 +2335,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1759,8 +2351,8 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="12">
-        <v>36</v>
+      <c r="A25" s="1">
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1776,8 +2368,8 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1">
-        <v>37</v>
+      <c r="A26" s="12">
+        <v>36</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1794,7 +2386,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1811,7 +2403,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1828,7 +2420,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1845,7 +2437,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1861,8 +2453,8 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="12">
-        <v>42</v>
+      <c r="A31" s="1">
+        <v>41</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1878,8 +2470,8 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1">
-        <v>43</v>
+      <c r="A32" s="12">
+        <v>42</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1896,7 +2488,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1911,237 +2503,276 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K33">
-    <cfRule type="expression" dxfId="65" priority="115" stopIfTrue="1">
+  <conditionalFormatting sqref="A10 A11:K34 A2:K9">
+    <cfRule type="expression" dxfId="122" priority="124" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="125" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="126" stopIfTrue="1">
       <formula>$I2="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:K19">
+    <cfRule type="expression" dxfId="119" priority="70" stopIfTrue="1">
+      <formula>$I19="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="71" stopIfTrue="1">
+      <formula>$I19="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="72" stopIfTrue="1">
+      <formula>$I19="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="expression" dxfId="116" priority="109" stopIfTrue="1">
+      <formula>$I24="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="110" stopIfTrue="1">
+      <formula>$I24="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="111" stopIfTrue="1">
+      <formula>$I24="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:K11">
+    <cfRule type="expression" dxfId="113" priority="94" stopIfTrue="1">
+      <formula>$I11="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="95" stopIfTrue="1">
+      <formula>$I11="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="96" stopIfTrue="1">
+      <formula>$I11="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:K12">
+    <cfRule type="expression" dxfId="110" priority="91" stopIfTrue="1">
+      <formula>$I12="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="92" stopIfTrue="1">
+      <formula>$I12="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="93" stopIfTrue="1">
+      <formula>$I12="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:K13">
+    <cfRule type="expression" dxfId="107" priority="88" stopIfTrue="1">
+      <formula>$I13="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="89" stopIfTrue="1">
+      <formula>$I13="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="90" stopIfTrue="1">
+      <formula>$I13="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:K14">
+    <cfRule type="expression" dxfId="104" priority="85" stopIfTrue="1">
+      <formula>$I14="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="86" stopIfTrue="1">
+      <formula>$I14="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="87" stopIfTrue="1">
+      <formula>$I14="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:K15">
+    <cfRule type="expression" dxfId="101" priority="82" stopIfTrue="1">
+      <formula>$I15="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="83" stopIfTrue="1">
+      <formula>$I15="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="84" stopIfTrue="1">
+      <formula>$I15="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:K16">
+    <cfRule type="expression" dxfId="98" priority="79" stopIfTrue="1">
+      <formula>$I16="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="80" stopIfTrue="1">
+      <formula>$I16="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="81" stopIfTrue="1">
+      <formula>$I16="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:K17">
+    <cfRule type="expression" dxfId="95" priority="76" stopIfTrue="1">
+      <formula>$I17="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="77" stopIfTrue="1">
+      <formula>$I17="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="78" stopIfTrue="1">
+      <formula>$I17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="73" stopIfTrue="1">
       <formula>$I18="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="74" stopIfTrue="1">
       <formula>$I18="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="75" stopIfTrue="1">
       <formula>$I18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23">
-    <cfRule type="expression" dxfId="59" priority="100" stopIfTrue="1">
+  <conditionalFormatting sqref="J23:K23">
+    <cfRule type="expression" dxfId="89" priority="58" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="59" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="60" stopIfTrue="1">
       <formula>$I23="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:K20">
+    <cfRule type="expression" dxfId="86" priority="67" stopIfTrue="1">
+      <formula>$I20="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="68" stopIfTrue="1">
+      <formula>$I20="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="69" stopIfTrue="1">
+      <formula>$I20="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:K21">
+    <cfRule type="expression" dxfId="83" priority="64" stopIfTrue="1">
+      <formula>$I21="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="65" stopIfTrue="1">
+      <formula>$I21="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="66" stopIfTrue="1">
+      <formula>$I21="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:K22">
+    <cfRule type="expression" dxfId="80" priority="61" stopIfTrue="1">
+      <formula>$I22="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="62" stopIfTrue="1">
+      <formula>$I22="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="63" stopIfTrue="1">
+      <formula>$I22="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="expression" dxfId="77" priority="46" stopIfTrue="1">
+      <formula>$I27="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="47" stopIfTrue="1">
+      <formula>$I27="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="48" stopIfTrue="1">
+      <formula>$I27="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:K24">
+    <cfRule type="expression" dxfId="74" priority="55" stopIfTrue="1">
+      <formula>$I24="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="56" stopIfTrue="1">
+      <formula>$I24="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="57" stopIfTrue="1">
+      <formula>$I24="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:K25">
+    <cfRule type="expression" dxfId="71" priority="52" stopIfTrue="1">
+      <formula>$I25="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="53" stopIfTrue="1">
+      <formula>$I25="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="54" stopIfTrue="1">
+      <formula>$I25="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:K26">
+    <cfRule type="expression" dxfId="68" priority="49" stopIfTrue="1">
+      <formula>$I26="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="50" stopIfTrue="1">
+      <formula>$I26="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="51" stopIfTrue="1">
+      <formula>$I26="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="65" priority="130" stopIfTrue="1">
+      <formula>#REF!="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="131" stopIfTrue="1">
+      <formula>#REF!="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="132" stopIfTrue="1">
+      <formula>#REF!="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="62" priority="175" stopIfTrue="1">
+      <formula>$I2="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="176" stopIfTrue="1">
+      <formula>$I2="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="177" stopIfTrue="1">
+      <formula>$I2="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:I10">
+    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
+      <formula>$I10="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="8" stopIfTrue="1">
+      <formula>$I10="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="9" stopIfTrue="1">
+      <formula>$I10="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:K10">
-    <cfRule type="expression" dxfId="56" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
       <formula>$I10="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>$I10="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>$I10="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:K11">
-    <cfRule type="expression" dxfId="53" priority="82" stopIfTrue="1">
-      <formula>$I11="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="83" stopIfTrue="1">
-      <formula>$I11="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="84" stopIfTrue="1">
-      <formula>$I11="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:K12">
-    <cfRule type="expression" dxfId="50" priority="79" stopIfTrue="1">
-      <formula>$I12="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="80" stopIfTrue="1">
-      <formula>$I12="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="81" stopIfTrue="1">
-      <formula>$I12="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:K13">
-    <cfRule type="expression" dxfId="47" priority="76" stopIfTrue="1">
-      <formula>$I13="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="77" stopIfTrue="1">
-      <formula>$I13="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="78" stopIfTrue="1">
-      <formula>$I13="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:K14">
-    <cfRule type="expression" dxfId="44" priority="73" stopIfTrue="1">
-      <formula>$I14="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="74" stopIfTrue="1">
-      <formula>$I14="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="75" stopIfTrue="1">
-      <formula>$I14="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:K15">
-    <cfRule type="expression" dxfId="41" priority="70" stopIfTrue="1">
-      <formula>$I15="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="71" stopIfTrue="1">
-      <formula>$I15="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="72" stopIfTrue="1">
-      <formula>$I15="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:K16">
-    <cfRule type="expression" dxfId="38" priority="67" stopIfTrue="1">
-      <formula>$I16="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="68" stopIfTrue="1">
-      <formula>$I16="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="69" stopIfTrue="1">
-      <formula>$I16="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:K17">
-    <cfRule type="expression" dxfId="35" priority="64" stopIfTrue="1">
-      <formula>$I17="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="65" stopIfTrue="1">
-      <formula>$I17="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="66" stopIfTrue="1">
-      <formula>$I17="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="32" priority="49" stopIfTrue="1">
-      <formula>$I22="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="50" stopIfTrue="1">
-      <formula>$I22="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="51" stopIfTrue="1">
-      <formula>$I22="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:K19">
-    <cfRule type="expression" dxfId="29" priority="58" stopIfTrue="1">
-      <formula>$I19="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="59" stopIfTrue="1">
-      <formula>$I19="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="60" stopIfTrue="1">
-      <formula>$I19="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:K20">
-    <cfRule type="expression" dxfId="26" priority="55" stopIfTrue="1">
-      <formula>$I20="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="56" stopIfTrue="1">
-      <formula>$I20="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="57" stopIfTrue="1">
-      <formula>$I20="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:K21">
-    <cfRule type="expression" dxfId="23" priority="52" stopIfTrue="1">
-      <formula>$I21="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="53" stopIfTrue="1">
-      <formula>$I21="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="54" stopIfTrue="1">
-      <formula>$I21="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:K26">
-    <cfRule type="expression" dxfId="20" priority="37" stopIfTrue="1">
-      <formula>$I26="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="38" stopIfTrue="1">
-      <formula>$I26="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="39" stopIfTrue="1">
-      <formula>$I26="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="17" priority="46" stopIfTrue="1">
-      <formula>$I23="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="47" stopIfTrue="1">
-      <formula>$I23="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="48" stopIfTrue="1">
-      <formula>$I23="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="14" priority="43" stopIfTrue="1">
-      <formula>$I24="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="44" stopIfTrue="1">
-      <formula>$I24="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="45" stopIfTrue="1">
-      <formula>$I24="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:K25">
-    <cfRule type="expression" dxfId="11" priority="40" stopIfTrue="1">
-      <formula>$I25="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="41" stopIfTrue="1">
-      <formula>$I25="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="42" stopIfTrue="1">
-      <formula>$I25="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="8" priority="121" stopIfTrue="1">
-      <formula>#REF!="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="122" stopIfTrue="1">
-      <formula>#REF!="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="123" stopIfTrue="1">
-      <formula>#REF!="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="5" priority="166" stopIfTrue="1">
-      <formula>$I2="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="167" stopIfTrue="1">
-      <formula>$I2="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="168" stopIfTrue="1">
-      <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
